--- a/aichan/505282256469346671_2021-03-23_23-13-13.xlsx
+++ b/aichan/505282256469346671_2021-03-23_23-13-13.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:48:49</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95056712963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -605,10 +619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:49:08</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44327.82578703704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -684,10 +696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:38:32</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44315.69342592593</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -755,10 +765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-24 20:45:17</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44310.86478009259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:38:24</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44310.485</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -907,10 +913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:55:27</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44308.45517361111</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -983,10 +987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:09:48</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44307.46513888889</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1059,10 +1061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:05:44</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44306.50398148148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1136,10 +1136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:27:35</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44305.0191550926</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1220,10 +1218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:44:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44304.94726851852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1292,10 +1288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:26:00</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44302.30972222222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1371,10 +1365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:16:17</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44302.0946412037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1446,10 +1438,8 @@
           <t>4411233262</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-14 09:38:21</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44300.40163194444</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1513,10 +1503,8 @@
           <t>4411236744</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-14 09:37:47</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44300.40123842593</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1580,10 +1568,8 @@
           <t>4381184039</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-08 05:31:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44294.23005787037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1662,10 +1648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:30:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44293.02084490741</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1730,10 +1714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-06 12:19:41</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44292.51366898148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1809,10 +1791,8 @@
           <t>4355823204</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-03 02:11:33</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44289.09135416667</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1873,10 +1853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:18:38</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44288.55460648148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1946,10 +1924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:42:01</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44286.86251157407</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2013,10 +1989,8 @@
           <t>4326277871</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:23:01</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44283.01598379629</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2092,10 +2066,8 @@
           <t>4308571386</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-25 09:53:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44280.41239583334</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2159,10 +2131,8 @@
           <t>4311975439</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:34:43</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44279.98244212963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2234,10 +2204,8 @@
           <t>4310997433</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:25:09</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44279.85079861111</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2305,10 +2273,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:19:50</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44279.80543981482</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2380,10 +2346,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:59:52</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44279.74990740741</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2459,10 +2423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:27:03</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44279.72711805555</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2526,10 +2488,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:08:28</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44279.71421296296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2601,10 +2561,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:07:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44279.71380787037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2676,10 +2634,8 @@
           <t>4306694402</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-24 15:56:30</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44279.66423611111</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2751,10 +2707,8 @@
           <t>4306120372</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-24 13:53:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44279.57849537037</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2830,10 +2784,8 @@
           <t>4309375336</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-24 13:06:11</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44279.54596064815</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2912,10 +2864,8 @@
           <t>4309370823</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-24 13:04:26</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44279.54474537037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2994,10 +2944,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:49:12</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44279.4925</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3073,10 +3021,8 @@
           <t>4307820782</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:03:34</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44279.46081018518</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3148,10 +3094,8 @@
           <t>4305788371</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-24 10:53:32</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44279.45384259259</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3223,10 +3167,8 @@
           <t>4308770557</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-24 10:16:21</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44279.42802083334</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3294,10 +3236,8 @@
           <t>4307813976</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-24 10:14:42</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44279.426875</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3365,10 +3305,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:43:52</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44279.40546296296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3444,10 +3382,8 @@
           <t>4307814633</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:39:08</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44279.40217592593</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3523,10 +3459,8 @@
           <t>4308658868</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:37:44</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44279.4012037037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3602,10 +3536,8 @@
           <t>4308571386</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:08:47</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44279.38109953704</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3669,10 +3601,8 @@
           <t>4308571386</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:59:04</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44279.37435185185</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3736,10 +3666,8 @@
           <t>4308570758</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:58:17</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44279.37380787037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3803,10 +3731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:20:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44279.09775462963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3866,10 +3792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:59:24</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44279.04125</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3929,10 +3853,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:33:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44279.02314814815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4006,10 +3928,8 @@
           <t>4307813976</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:10:33</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44279.00732638889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4077,10 +3997,8 @@
           <t>4307814633</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:07:34</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44279.00525462963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4157,10 +4075,8 @@
           <t>4307820782</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:07:19</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44279.00508101852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4237,10 +4153,8 @@
           <t>4307813976</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:07:07</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44279.00494212963</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4317,10 +4231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:33:41</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44278.98172453704</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4396,10 +4308,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:04:20</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44278.96134259259</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4475,10 +4385,8 @@
           <t>4305967957</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:58:00</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44278.95694444444</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4550,10 +4458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:54:25</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44278.95445601852</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4625,10 +4531,8 @@
           <t>4307443727</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:54:09</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44278.95427083333</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4700,10 +4604,8 @@
           <t>4305776214</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:17:33</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44278.92885416667</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4771,10 +4673,8 @@
           <t>4307125292</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:51:55</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44278.91105324074</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4842,10 +4742,8 @@
           <t>4305950265</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:51:05</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44278.91047453704</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4913,10 +4811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:45:09</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44278.90635416667</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4992,10 +4888,8 @@
           <t>4305978347</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:44:13</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44278.90570601852</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5063,10 +4957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:43:16</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44278.9050462963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5134,10 +5026,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:21:31</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44278.88994212963</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5213,10 +5103,8 @@
           <t>4305786182</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:20:27</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44278.88920138889</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5284,10 +5172,8 @@
           <t>4306954949</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:17:16</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44278.88699074074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5355,10 +5241,8 @@
           <t>4305776214</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:11:52</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44278.88324074074</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5422,10 +5306,8 @@
           <t>4306896496</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:15</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44278.8765625</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5493,10 +5375,8 @@
           <t>4306030246</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:02</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44278.87641203704</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5560,10 +5440,8 @@
           <t>4306844573</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:53:55</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44278.87077546296</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5631,10 +5509,8 @@
           <t>4306833445</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:50:07</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44278.86813657408</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5704,10 +5580,8 @@
           <t>4306810175</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:44:35</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44278.86429398148</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5777,10 +5651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:29:59</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44278.85415509259</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -5850,10 +5722,8 @@
           <t>4306694402</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:20:57</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44278.84788194444</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5921,10 +5791,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:19:04</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44278.84657407407</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5996,10 +5864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:17:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44278.84552083333</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -6067,10 +5933,8 @@
           <t>4306333507</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:14:34</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44278.84344907408</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6138,10 +6002,8 @@
           <t>4306631377</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:05:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44278.83704861111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6213,10 +6075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:04:17</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44278.83630787037</v>
       </c>
       <c r="I79" t="n">
         <v>12</v>
@@ -6288,10 +6148,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:01:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44278.83417824074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6355,10 +6213,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:00:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44278.83377314815</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6430,10 +6286,8 @@
           <t>4306120372</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:59:12</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44278.83277777778</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6501,10 +6355,8 @@
           <t>4306593668</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:58:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44278.83207175926</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6572,10 +6424,8 @@
           <t>4306333507</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:57:57</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44278.83190972222</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6647,10 +6497,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:56:54</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44278.83118055556</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6722,10 +6570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:56:07</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44278.83063657407</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6801,10 +6647,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:54:21</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44278.82940972222</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6876,10 +6720,8 @@
           <t>4305967957</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:53:50</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44278.82905092592</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6947,10 +6789,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:52:39</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44278.82822916667</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7023,10 +6863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:52:12</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44278.82791666667</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7094,10 +6932,8 @@
           <t>4306504166</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:51:00</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44278.82708333333</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7169,10 +7005,8 @@
           <t>4306120372</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:50:37</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44278.82681712963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7248,10 +7082,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:44:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44278.82244212963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7319,10 +7151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:43:38</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44278.82196759259</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7390,10 +7220,8 @@
           <t>4306520139</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:40:23</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44278.81971064815</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7457,10 +7285,8 @@
           <t>4306504166</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:38:20</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44278.81828703704</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7524,10 +7350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:34:39</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44278.81572916666</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7595,10 +7419,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:33:14</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44278.81474537037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7670,10 +7492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:32:56</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44278.81453703704</v>
       </c>
       <c r="I99" t="n">
         <v>5</v>
@@ -7749,10 +7569,8 @@
           <t>4305788371</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:29:05</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44278.81186342592</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7824,10 +7642,8 @@
           <t>4306459553</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:28:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44278.81144675926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7899,10 +7715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:28:11</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44278.81123842593</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7962,10 +7776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:23:31</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44278.80799768519</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8033,10 +7845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:22:53</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44278.80755787037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8097,10 +7907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:22:39</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44278.80739583333</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8176,10 +7984,8 @@
           <t>4306438199</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:22:09</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44278.80704861111</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8243,10 +8049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:20:37</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44278.80598379629</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8322,10 +8126,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:18:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44278.80481481482</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8397,10 +8199,8 @@
           <t>4306425274</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:18:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44278.80474537037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8472,10 +8272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:15:08</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44278.80217592593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8551,10 +8349,8 @@
           <t>4305550892</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:12:52</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44278.80060185185</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8622,10 +8418,8 @@
           <t>4305776214</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:07:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44278.79702546296</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8689,10 +8483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:06:33</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44278.79621527778</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8768,10 +8560,8 @@
           <t>4305776214</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:04:09</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44278.79454861111</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8839,10 +8629,8 @@
           <t>4306349796</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:03:34</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44278.79414351852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8918,10 +8706,8 @@
           <t>4306349257</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:03:13</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44278.79390046297</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8985,10 +8771,8 @@
           <t>4306339989</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:02:18</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44278.79326388889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9060,10 +8844,8 @@
           <t>4306343357</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-23 19:01:57</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44278.79302083333</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9127,10 +8909,8 @@
           <t>4306333507</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:59:33</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44278.79135416666</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9198,10 +8978,8 @@
           <t>4306323857</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:58:22</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44278.79053240741</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9273,10 +9051,8 @@
           <t>4306030246</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:56:25</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44278.78917824074</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9344,10 +9120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:50:49</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44278.78528935185</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9419,10 +9193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:50:09</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44278.78482638889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9490,10 +9262,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:40:26</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44278.7780787037</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9569,10 +9339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:39:22</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44278.77733796297</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9640,10 +9408,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:37:34</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44278.77608796296</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9720,10 +9486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:29:25</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44278.77042824074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9791,10 +9555,8 @@
           <t>4306192104</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:28:23</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44278.76971064815</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9858,10 +9620,8 @@
           <t>4306191074</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:27:41</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44278.76922453703</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9925,10 +9685,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:22:16</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44278.76546296296</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10000,10 +9758,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:21:50</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44278.76516203704</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10075,10 +9831,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:21:37</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44278.76501157408</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10138,10 +9892,8 @@
           <t>4305644035</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:20:13</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44278.76403935185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10201,10 +9953,8 @@
           <t>4306147161</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:18:36</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44278.76291666667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10277,10 +10027,8 @@
           <t>4305791662</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:14:00</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44278.75972222222</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10352,10 +10100,8 @@
           <t>4306125442</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:13:58</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44278.75969907407</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10431,10 +10177,8 @@
           <t>4305967957</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:13:50</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44278.75960648148</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10502,10 +10246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:13:19</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44278.75924768519</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10573,10 +10315,8 @@
           <t>4306120372</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:12:35</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44278.75873842592</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10644,10 +10384,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:12:27</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44278.75864583333</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10719,10 +10457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:12:14</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44278.75849537037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10798,10 +10534,8 @@
           <t>4305978347</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:09:50</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44278.75682870371</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10861,10 +10595,8 @@
           <t>4306103182</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:09:36</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44278.75666666667</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10932,10 +10664,8 @@
           <t>4305571930</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:08:28</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44278.75587962963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11003,10 +10733,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:08:18</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44278.75576388889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11074,10 +10802,8 @@
           <t>4305730725</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:07:32</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44278.75523148148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11145,10 +10871,8 @@
           <t>4306077761</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:04:25</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44278.75306712963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11220,10 +10944,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:02:03</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44278.75142361111</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11300,10 +11022,8 @@
           <t>4306071102</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:01:59</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44278.75137731482</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11371,10 +11091,8 @@
           <t>4305541470</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:01:54</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44278.75131944445</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11442,10 +11160,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:00:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44278.75041666667</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11513,10 +11229,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:00:23</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44278.7502662037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11584,10 +11298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-23 18:00:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44278.75005787037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11655,10 +11367,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:59:04</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44278.74935185185</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11735,10 +11445,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:58:58</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44278.74928240741</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11815,10 +11523,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:58:09</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44278.74871527778</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11886,10 +11592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:56:52</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44278.74782407407</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11961,10 +11665,8 @@
           <t>4305978347</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:56:23</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44278.74748842593</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12024,10 +11726,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:53:30</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44278.74548611111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12097,10 +11797,8 @@
           <t>4306030246</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:52:41</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44278.74491898148</v>
       </c>
       <c r="I160" t="n">
         <v>7</v>
@@ -12168,10 +11866,8 @@
           <t>4306026029</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:51:57</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44278.74440972223</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12247,10 +11943,8 @@
           <t>4305967957</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:51:42</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44278.74423611111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12314,10 +12008,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:51:21</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44278.74399305556</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12385,10 +12077,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:51:06</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44278.74381944445</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12458,10 +12148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:49:33</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44278.74274305555</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12537,10 +12225,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:49:17</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44278.74255787037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12608,10 +12294,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:43:51</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44278.73878472222</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12687,10 +12371,8 @@
           <t>4305983600</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:43:05</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44278.73825231481</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12758,10 +12440,8 @@
           <t>4305978347</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:41:46</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44278.73733796296</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12829,10 +12509,8 @@
           <t>4305872812</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:40:10</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44278.73622685186</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12908,10 +12586,8 @@
           <t>4305967957</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:38:58</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44278.73539351852</v>
       </c>
       <c r="I171" t="n">
         <v>4</v>
@@ -12975,10 +12651,8 @@
           <t>4305933766</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:35:58</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44278.73331018518</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13050,10 +12724,8 @@
           <t>4305956851</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:35:28</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44278.73296296296</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13117,10 +12789,8 @@
           <t>4305872812</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:33:17</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44278.73144675926</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -13184,10 +12854,8 @@
           <t>4305950265</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:33:12</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44278.73138888889</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13251,10 +12919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:33:08</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44278.73134259259</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13322,10 +12988,8 @@
           <t>4305943425</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:32:48</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44278.73111111111</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13397,10 +13061,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:32:19</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44278.73077546297</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13472,10 +13134,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:32:19</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44278.73077546297</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13543,10 +13203,8 @@
           <t>4305933766</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:30:39</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44278.72961805556</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13618,10 +13276,8 @@
           <t>4305930616</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:28:09</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44278.72788194445</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13693,10 +13349,8 @@
           <t>4305919207</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:27:03</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44278.72711805555</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13768,10 +13422,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:26:06</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44278.72645833333</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13839,10 +13491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:24:51</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44278.72559027778</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13906,10 +13556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:23:50</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44278.72488425926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13985,10 +13633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:22:15</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44278.72378472222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14064,10 +13710,8 @@
           <t>4305788371</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:20:46</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44278.72275462963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14139,10 +13783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:19:18</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44278.72173611111</v>
       </c>
       <c r="I188" t="n">
         <v>52</v>
@@ -14210,10 +13852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:17:57</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44278.72079861111</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14282,10 +13922,8 @@
           <t>4305879783</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:17:26</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44278.72043981482</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14353,10 +13991,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:17:09</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44278.72024305556</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14428,10 +14064,8 @@
           <t>4305878400</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:16:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44278.7196412037</v>
       </c>
       <c r="I192" t="n">
         <v>5</v>
@@ -14499,10 +14133,8 @@
           <t>4305882059</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:15:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44278.71942129629</v>
       </c>
       <c r="I193" t="n">
         <v>5</v>
@@ -14566,10 +14198,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:15:38</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44278.71918981482</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14641,10 +14271,8 @@
           <t>4305875552</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:13:59</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44278.71804398148</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14712,10 +14340,8 @@
           <t>4305872812</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:13:54</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44278.71798611111</v>
       </c>
       <c r="I196" t="n">
         <v>9</v>
@@ -14791,10 +14417,8 @@
           <t>4305865849</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:54</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44278.71590277777</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14866,10 +14490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:36</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44278.71569444444</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14941,10 +14563,8 @@
           <t>4305865137</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:17</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44278.71547453704</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15008,10 +14628,8 @@
           <t>4305554850</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:10:10</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44278.71539351852</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15087,10 +14705,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:08:08</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44278.71398148148</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15162,10 +14778,8 @@
           <t>4305845901</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:06:04</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44278.71254629629</v>
       </c>
       <c r="I202" t="n">
         <v>14</v>
@@ -15233,10 +14847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:05:24</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44278.71208333333</v>
       </c>
       <c r="I203" t="n">
         <v>62</v>
@@ -15305,10 +14917,8 @@
           <t>4305788371</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:04:53</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44278.71172453704</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15384,10 +14994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:03:12</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44278.71055555555</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -15451,10 +15059,8 @@
           <t>4305835188</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:02:05</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44278.70978009259</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15522,10 +15128,8 @@
           <t>4305824179</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:01:18</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44278.70923611111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15589,10 +15193,8 @@
           <t>4305824057</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:01:12</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44278.70916666667</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15664,10 +15266,8 @@
           <t>4305791662</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-23 17:00:17</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44278.70853009259</v>
       </c>
       <c r="I209" t="n">
         <v>8</v>
@@ -15743,10 +15343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:59:25</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44278.70792824074</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15806,10 +15404,8 @@
           <t>4305804961</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:57:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44278.70643518519</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15885,10 +15481,8 @@
           <t>4305669764</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:57:05</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44278.70630787037</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15956,10 +15550,8 @@
           <t>4305807295</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:55:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44278.70523148148</v>
       </c>
       <c r="I213" t="n">
         <v>7</v>
@@ -16031,10 +15623,8 @@
           <t>4305788371</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:52:51</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44278.70336805555</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -16106,10 +15696,8 @@
           <t>4305788979</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:51:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44278.70275462963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16185,10 +15773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:51:31</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44278.70244212963</v>
       </c>
       <c r="I216" t="n">
         <v>68</v>
@@ -16256,10 +15842,8 @@
           <t>4305788371</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:51:25</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44278.70237268518</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16331,10 +15915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:51:09</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44278.7021875</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16402,10 +15984,8 @@
           <t>4305791662</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:50:34</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44278.70178240741</v>
       </c>
       <c r="I219" t="n">
         <v>31</v>
@@ -16469,10 +16049,8 @@
           <t>4305786182</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:49:29</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44278.70103009259</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16544,10 +16122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:48:59</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44278.70068287037</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16615,10 +16191,8 @@
           <t>4305776214</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:45:52</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44278.69851851852</v>
       </c>
       <c r="I222" t="n">
         <v>4</v>
@@ -16682,10 +16256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:45:20</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44278.69814814815</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16761,10 +16333,8 @@
           <t>4305769038</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:45:18</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44278.698125</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16828,10 +16398,8 @@
           <t>4305764629</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:44:26</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44278.69752314815</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16907,10 +16475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:39:17</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44278.69394675926</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16974,10 +16540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:38:48</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44278.69361111111</v>
       </c>
       <c r="I227" t="n">
         <v>48</v>
@@ -17041,10 +16605,8 @@
           <t>4305751143</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:38:02</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44278.69307870371</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17120,10 +16682,8 @@
           <t>4305634502</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:36:52</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44278.69226851852</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17191,10 +16751,8 @@
           <t>4305738222</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:35:23</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44278.69123842593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17266,10 +16824,8 @@
           <t>4305734017</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:34:48</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44278.69083333333</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17345,10 +16901,8 @@
           <t>4305729519</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:34:35</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44278.69068287037</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17416,10 +16970,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:34:15</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44278.69045138889</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17491,10 +17043,8 @@
           <t>4305728652</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:33:47</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44278.69012731482</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17570,10 +17120,8 @@
           <t>4305724454</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:31:51</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44278.68878472222</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17649,10 +17197,8 @@
           <t>4305669764</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:31:49</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44278.68876157407</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17724,10 +17270,8 @@
           <t>4305730725</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:31:45</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44278.68871527778</v>
       </c>
       <c r="I237" t="n">
         <v>14</v>
@@ -17791,10 +17335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:31:17</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44278.6883912037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17854,10 +17396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:30:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44278.68815972222</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17929,10 +17469,8 @@
           <t>4305718640</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:29:43</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44278.68730324074</v>
       </c>
       <c r="I240" t="n">
         <v>4</v>
@@ -17996,10 +17534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:28:06</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44278.68618055555</v>
       </c>
       <c r="I241" t="n">
         <v>4</v>
@@ -18067,10 +17603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:27:35</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44278.68582175926</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18138,10 +17672,8 @@
           <t>4305715663</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:26:53</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44278.68533564815</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18209,10 +17741,8 @@
           <t>4305698610</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:24:15</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44278.68350694444</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18288,10 +17818,8 @@
           <t>4305688418</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:20:01</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44278.68056712963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18355,10 +17883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:18:33</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44278.67954861111</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18426,10 +17952,8 @@
           <t>4305574307</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:17:56</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44278.67912037037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18497,10 +18021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:17:50</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44278.67905092592</v>
       </c>
       <c r="I248" t="n">
         <v>35</v>
@@ -18572,10 +18094,8 @@
           <t>4305574307</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:17:44</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44278.67898148148</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18643,10 +18163,8 @@
           <t>4305685983</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:17:41</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44278.67894675926</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18710,10 +18228,8 @@
           <t>4305669764</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:17:26</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44278.67877314815</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18781,10 +18297,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:16:24</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44278.67805555555</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18848,10 +18362,8 @@
           <t>4305680262</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:16:22</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44278.67803240741</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18923,10 +18435,8 @@
           <t>4305669764</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:15:54</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44278.67770833334</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18998,10 +18508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:15:31</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44278.67744212963</v>
       </c>
       <c r="I255" t="n">
         <v>20</v>
@@ -19069,10 +18577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:15:16</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44278.67726851852</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19144,10 +18650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:15:00</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44278.67708333334</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19211,10 +18715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:14:49</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44278.67695601852</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19290,10 +18792,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:13:04</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44278.67574074074</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19370,10 +18870,8 @@
           <t>4305584831</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:12:52</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44278.67560185185</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19441,10 +18939,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:12:46</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44278.6755324074</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19521,10 +19017,8 @@
           <t>4305541470</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:12:09</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44278.67510416666</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19592,10 +19086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:11:58</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44278.67497685185</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19673,10 +19165,8 @@
           <t>4305659688</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:11:35</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44278.67471064815</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19752,10 +19242,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:11:15</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44278.67447916666</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19823,10 +19311,8 @@
           <t>4305654145</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:10:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44278.67395833333</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19898,10 +19384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:10:16</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44278.67379629629</v>
       </c>
       <c r="I267" t="n">
         <v>26</v>
@@ -19969,10 +19453,8 @@
           <t>4305574307</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:09:57</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44278.67357638889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20036,10 +19518,8 @@
           <t>4305660971</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:09:30</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44278.67326388889</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20107,10 +19587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:08:59</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44278.67290509259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20178,10 +19656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:07:25</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44278.67181712963</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20245,10 +19721,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:07:20</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44278.67175925926</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20320,10 +19794,8 @@
           <t>4305550892</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:06:34</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44278.67122685185</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20399,10 +19871,8 @@
           <t>4305644035</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:05:58</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44278.67081018518</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20470,10 +19940,8 @@
           <t>4305642614</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:04:35</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44278.66984953704</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20549,10 +20017,8 @@
           <t>4305584831</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:03:24</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44278.66902777777</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20624,10 +20090,8 @@
           <t>4305634502</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:03:14</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44278.66891203704</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20699,10 +20163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:02:32</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44278.66842592593</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20779,10 +20241,8 @@
           <t>4305589006</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:01:21</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44278.66760416667</v>
       </c>
       <c r="I279" t="n">
         <v>11</v>
@@ -20854,10 +20314,8 @@
           <t>4305624704</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-23 16:01:18</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44278.66756944444</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20925,10 +20383,8 @@
           <t>4305627763</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:59:47</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44278.6665162037</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21000,10 +20456,8 @@
           <t>4305626314</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:58:19</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44278.66549768519</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -21075,10 +20529,8 @@
           <t>4305614279</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:56:13</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44278.66403935185</v>
       </c>
       <c r="I283" t="n">
         <v>5</v>
@@ -21142,10 +20594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:54:34</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44278.66289351852</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21213,10 +20663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:53:33</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44278.6621875</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21284,10 +20732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:50:17</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44278.65991898148</v>
       </c>
       <c r="I286" t="n">
         <v>150</v>
@@ -21359,10 +20805,8 @@
           <t>4305598065</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:49:49</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44278.65959490741</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21438,10 +20882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:49:09</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44278.65913194444</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21509,10 +20951,8 @@
           <t>4305596908</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:48:39</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44278.65878472223</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21588,10 +21028,8 @@
           <t>4305503753</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:48:20</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44278.65856481482</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21663,10 +21101,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:48:03</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44278.65836805556</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21738,10 +21174,8 @@
           <t>4305589006</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:47:23</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44278.65790509259</v>
       </c>
       <c r="I292" t="n">
         <v>21</v>
@@ -21817,10 +21251,8 @@
           <t>4305584831</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:46:29</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44278.65728009259</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21888,10 +21320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:45:27</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44278.6565625</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21955,10 +21385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:45:00</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44278.65625</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22034,10 +21462,8 @@
           <t>4305554850</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:43:35</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44278.65526620371</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22113,10 +21539,8 @@
           <t>4305574307</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:42:21</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44278.65440972222</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22184,10 +21608,8 @@
           <t>4305524426</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:42:13</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44278.65431712963</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22255,10 +21677,8 @@
           <t>4305576624</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:42:09</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44278.65427083334</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22327,10 +21747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:41:53</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44278.65408564815</v>
       </c>
       <c r="I300" t="n">
         <v>42</v>
@@ -22398,10 +21816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:41:48</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44278.65402777777</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22469,10 +21885,8 @@
           <t>4305569070</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:40:16</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44278.65296296297</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22544,10 +21958,8 @@
           <t>4305571930</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:39:47</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44278.65262731481</v>
       </c>
       <c r="I303" t="n">
         <v>3</v>
@@ -22615,10 +22027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:39:03</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44278.65211805556</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22690,10 +22100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:38:57</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44278.65204861111</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22757,10 +22165,8 @@
           <t>4305563192</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:38:21</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44278.65163194444</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22836,10 +22242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:37:09</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44278.65079861111</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22907,10 +22311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:36:41</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44278.65047453704</v>
       </c>
       <c r="I308" t="n">
         <v>37</v>
@@ -22987,10 +22389,8 @@
           <t>4305554850</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:35:45</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44278.64982638889</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23066,10 +22466,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:34:22</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44278.64886574074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23141,10 +22539,8 @@
           <t>4305552820</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:33:32</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44278.64828703704</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23220,10 +22616,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:33:11</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44278.64804398148</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23291,10 +22685,8 @@
           <t>4305555570</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:32:55</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44278.6478587963</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23359,10 +22751,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:32:31</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44278.64758101852</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23434,10 +22824,8 @@
           <t>4305551786</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:32:27</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44278.64753472222</v>
       </c>
       <c r="I315" t="n">
         <v>6</v>
@@ -23513,10 +22901,8 @@
           <t>4305551425</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:32:04</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44278.64726851852</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23580,10 +22966,8 @@
           <t>4305550892</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:31:30</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44278.646875</v>
       </c>
       <c r="I317" t="n">
         <v>11</v>
@@ -23651,10 +23035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:31:21</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44278.64677083334</v>
       </c>
       <c r="I318" t="n">
         <v>27</v>
@@ -23718,10 +23100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:31:19</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44278.64674768518</v>
       </c>
       <c r="I319" t="n">
         <v>9</v>
@@ -23797,10 +23177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:31:07</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44278.6466087963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23872,10 +23250,8 @@
           <t>4305539606</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:30:12</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44278.64597222222</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -23947,10 +23323,8 @@
           <t>4305545468</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:30:04</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44278.64587962963</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24022,10 +23396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:29:54</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44278.64576388889</v>
       </c>
       <c r="I323" t="n">
         <v>13</v>
@@ -24093,10 +23465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:29:41</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44278.64561342593</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24160,10 +23530,8 @@
           <t>4305541847</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:28:59</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44278.64512731481</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24239,10 +23607,8 @@
           <t>4305541470</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:28:36</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44278.64486111111</v>
       </c>
       <c r="I326" t="n">
         <v>115</v>
@@ -24314,10 +23680,8 @@
           <t>4305514537</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:28:28</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44278.64476851852</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24385,10 +23749,8 @@
           <t>4305531913</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:26:53</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44278.64366898148</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24456,10 +23818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:26:21</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44278.64329861111</v>
       </c>
       <c r="I329" t="n">
         <v>194</v>
@@ -24531,10 +23891,8 @@
           <t>4305531913</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:26:14</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44278.64321759259</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24606,10 +23964,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:26:11</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44278.64318287037</v>
       </c>
       <c r="I331" t="n">
         <v>10</v>
@@ -24685,10 +24041,8 @@
           <t>4305524426</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:46</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44278.64219907407</v>
       </c>
       <c r="I332" t="n">
         <v>19</v>
@@ -24764,10 +24118,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:11</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44278.64179398148</v>
       </c>
       <c r="I333" t="n">
         <v>14</v>
@@ -24843,10 +24195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:24:08</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44278.64175925926</v>
       </c>
       <c r="I334" t="n">
         <v>7</v>
@@ -24914,10 +24264,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:48</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44278.64152777778</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24989,10 +24337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:33</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44278.64135416667</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25060,10 +24406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:23:23</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44278.64123842592</v>
       </c>
       <c r="I337" t="n">
         <v>51</v>
@@ -25140,10 +24484,8 @@
           <t>4305521889</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:22:03</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44278.6403125</v>
       </c>
       <c r="I338" t="n">
         <v>14</v>
@@ -25215,10 +24557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:21:27</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44278.63989583333</v>
       </c>
       <c r="I339" t="n">
         <v>253</v>
@@ -25294,10 +24634,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:21:22</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44278.63983796296</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25369,10 +24707,8 @@
           <t>4305514537</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:21:08</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44278.63967592592</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25444,10 +24780,8 @@
           <t>4305514359</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:56</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44278.63953703704</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25523,10 +24857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:50</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44278.63946759259</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25602,10 +24934,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:37</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44278.63931712963</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25681,10 +25011,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:37</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44278.63931712963</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25760,10 +25088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:12</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44278.63902777778</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25831,10 +25157,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:03</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44278.63892361111</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25906,10 +25230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:20:02</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44278.63891203704</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25977,10 +25299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:52</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44278.6387962963</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26052,10 +25372,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:48</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44278.63875</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -26127,10 +25445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:19</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44278.63841435185</v>
       </c>
       <c r="I351" t="n">
         <v>205</v>
@@ -26198,10 +25514,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:19:11</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44278.63832175926</v>
       </c>
       <c r="I352" t="n">
         <v>27</v>
@@ -26277,10 +25591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:52</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44278.63810185185</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26352,10 +25664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:50</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44278.63807870371</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26423,10 +25733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:30</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44278.63784722222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26502,10 +25810,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:12</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44278.63763888889</v>
       </c>
       <c r="I356" t="n">
         <v>7</v>
@@ -26581,10 +25887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:05</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44278.63755787037</v>
       </c>
       <c r="I357" t="n">
         <v>85</v>
@@ -26652,10 +25956,8 @@
           <t>4305504312</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:18:02</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44278.63752314815</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26731,10 +26033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:30</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44278.63715277778</v>
       </c>
       <c r="I359" t="n">
         <v>12</v>
@@ -26813,10 +26113,8 @@
           <t>4305503820</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:26</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44278.63710648148</v>
       </c>
       <c r="I360" t="n">
         <v>81</v>
@@ -26888,10 +26186,8 @@
           <t>4305503753</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:17:21</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44278.63704861111</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -26967,10 +26263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:49</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44278.63667824074</v>
       </c>
       <c r="I362" t="n">
         <v>437</v>
@@ -27046,10 +26340,8 @@
           <t>4305510489</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:42</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44278.63659722222</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -27125,10 +26417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:40</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44278.63657407407</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27196,10 +26486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:38</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44278.63655092593</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27275,10 +26563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:16:38</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44278.63655092593</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27350,10 +26636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:58</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44278.63608796296</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27429,10 +26713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:47</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44278.63596064815</v>
       </c>
       <c r="I368" t="n">
         <v>2</v>
@@ -27504,10 +26786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:22</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44278.6356712963</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27575,10 +26855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:15:00</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44278.63541666666</v>
       </c>
       <c r="I370" t="n">
         <v>1667</v>
@@ -27654,10 +26932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:59</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44278.63540509259</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27733,10 +27009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:56</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44278.63537037037</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27812,10 +27086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:52</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44278.63532407407</v>
       </c>
       <c r="I373" t="n">
         <v>18</v>
@@ -27884,10 +27156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:42</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44278.63520833333</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27951,10 +27221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:40</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44278.63518518519</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -28030,10 +27298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:39</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44278.63517361111</v>
       </c>
       <c r="I376" t="n">
         <v>10</v>
@@ -28101,10 +27367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:22</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44278.63497685185</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28173,10 +27437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:16</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44278.63490740741</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28248,10 +27510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:11</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44278.63484953704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28319,10 +27579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:08</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44278.63481481482</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28394,10 +27652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:14:03</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44278.63475694445</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28469,10 +27725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:56</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44278.63467592592</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28536,10 +27790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-23 15:13:46</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44278.63456018519</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
